--- a/Named entities/Named entities in progress.xlsx
+++ b/Named entities/Named entities in progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Kitab QNL\Data Github\DSP-Data\Named entities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B521E56-924F-4ED1-8248-2E7C6F09CAEA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45011ECF-4918-4672-BE1C-B5F699688AA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{1FC451A6-EE5B-4829-A09A-0FF66DBDC4B3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{1FC451A6-EE5B-4829-A09A-0FF66DBDC4B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11757" uniqueCount="1708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11761" uniqueCount="1710">
   <si>
     <t>entity</t>
   </si>
@@ -5178,6 +5178,12 @@
   </si>
   <si>
     <t>Content.subcategory</t>
+  </si>
+  <si>
+    <t>لبنان</t>
+  </si>
+  <si>
+    <t>@Lebanon</t>
   </si>
 </sst>
 </file>
@@ -5442,7 +5448,63 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <name val="Arial"/>
-        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -5470,7 +5532,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -5483,45 +5545,6 @@
         <color rgb="FF000000"/>
         <name val="Arial"/>
         <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color rgb="FFCCCCCC"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -5604,8 +5627,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -5617,48 +5654,31 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <name val="Arial"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -5687,20 +5707,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color rgb="FFCCCCCC"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -6014,7 +6020,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{81BDEAF2-7777-48A9-9546-5417D5C38EDD}" name="Event_MajorEvent_E" displayName="Event_MajorEvent_E" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{81BDEAF2-7777-48A9-9546-5417D5C38EDD}" name="Event_MajorEvent_E" displayName="Event_MajorEvent_E" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:E1048576" xr:uid="{78F6A00D-D801-4544-BA42-174AF591FD5C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{26FF717A-8D75-46D6-9CF4-7E74D4F189A5}" name="entity"/>
@@ -6028,7 +6034,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5FE76165-2A72-4604-B32C-9BDC06792188}" name="Event_OtherEvent_E" displayName="Event_OtherEvent_E" ref="F1:J1048576" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5FE76165-2A72-4604-B32C-9BDC06792188}" name="Event_OtherEvent_E" displayName="Event_OtherEvent_E" ref="F1:J1048576" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="F1:J1048576" xr:uid="{C04783FA-1E4B-4463-8D04-47428743D5A7}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{C025D08D-CA05-4D1D-A238-AC2BB4C17AAD}" name="entity"/>
@@ -6042,7 +6048,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{039B672F-AC21-402A-9C41-73AB71C026BA}" name="Place_Place_E" displayName="Place_Place_E" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{039B672F-AC21-402A-9C41-73AB71C026BA}" name="Place_Place_E" displayName="Place_Place_E" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:E1048576" xr:uid="{9436CA9F-E8D4-4F47-85DC-ABC8FD5423F9}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A6864483-34AD-408D-88F6-9FD9BA2E8477}" name="entity"/>
@@ -6056,7 +6062,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A7C2F63B-DEDA-49B0-BDAB-57590FAA6A13}" name="Time_E" displayName="Time_E" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A7C2F63B-DEDA-49B0-BDAB-57590FAA6A13}" name="Time_E" displayName="Time_E" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:E1048576" xr:uid="{196CCC8C-2F08-416F-9BD1-EBC6E7984743}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D0183A14-D461-40A5-9A6D-6599F0907A66}" name="entity"/>
@@ -6096,7 +6102,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DFD0311A-2753-4358-B53A-8AEECA0E09C0}" name="Person_OtherPerson_E" displayName="Person_OtherPerson_E" ref="F1:J1048576" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DFD0311A-2753-4358-B53A-8AEECA0E09C0}" name="Person_OtherPerson_E" displayName="Person_OtherPerson_E" ref="F1:J1048576" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13">
   <autoFilter ref="F1:J1048576" xr:uid="{607E3185-AEDC-42EB-A666-4674A83C45C7}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F2DC970D-ECB3-4E45-AD46-9BCECB013278}" name="entity"/>
@@ -6110,7 +6116,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{55A8646B-6AE5-40E0-89A3-62A51CA219F4}" name="Person_Supernatural_E" displayName="Person_Supernatural_E" ref="K1:O1048576" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="3" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{55A8646B-6AE5-40E0-89A3-62A51CA219F4}" name="Person_Supernatural_E" displayName="Person_Supernatural_E" ref="K1:O1048576" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="K1:O1048576" xr:uid="{1DF68350-64C2-48DA-A777-D50D6C41F85C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5C72AC0A-3722-4FB4-A811-BCA21545395A}" name="entity"/>
@@ -6124,7 +6130,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F8E20439-BA1B-4758-AB17-4670176BB8E5}" name="Group_Tribes_E" displayName="Group_Tribes_E" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F8E20439-BA1B-4758-AB17-4670176BB8E5}" name="Group_Tribes_E" displayName="Group_Tribes_E" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:E1048576" xr:uid="{F67F78B8-D034-41BF-A815-D2038956366F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F914F912-CB5D-4306-9DF4-C5AA0E7EE49A}" name="entity"/>
@@ -6138,7 +6144,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{13FF0278-E1E8-4573-9EF7-102F545AA91F}" name="Groups_CollectiveNouns_E" displayName="Groups_CollectiveNouns_E" ref="F1:J1048576" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{13FF0278-E1E8-4573-9EF7-102F545AA91F}" name="Groups_CollectiveNouns_E" displayName="Groups_CollectiveNouns_E" ref="F1:J1048576" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="F1:J1048576" xr:uid="{C237822B-AD0D-4987-B944-535E5FCDC84E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8BD3389F-8F0C-49AD-BA8A-5E5955F0C5BD}" name="entity"/>
@@ -6152,7 +6158,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0D2DA357-E772-4F17-A62B-9BF8918AFAFF}" name="Group_PeoplesReligiousGroups_E" displayName="Group_PeoplesReligiousGroups_E" ref="K1:O1048576" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0D2DA357-E772-4F17-A62B-9BF8918AFAFF}" name="Group_PeoplesReligiousGroups_E" displayName="Group_PeoplesReligiousGroups_E" ref="K1:O1048576" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="K1:O1048576" xr:uid="{8D7FF956-26B9-4238-8C52-A8FD718C425E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{4D74A9D6-6C86-4440-A051-EF7C8E8045AA}" name="entity"/>
@@ -6166,7 +6172,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8D46A906-F6A2-4E06-870D-41AA64736D50}" name="Entity_Misc_E" displayName="Entity_Misc_E" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8D46A906-F6A2-4E06-870D-41AA64736D50}" name="Entity_Misc_E" displayName="Entity_Misc_E" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:E1048576" xr:uid="{93EFD07C-DA32-4951-AA9A-8E6F04D5A8F2}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5E58E929-8383-4D1E-854B-236C47E083B9}" name="entity"/>
@@ -6180,7 +6186,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{A7F4BC04-EF6D-44C8-A8A4-333217A27DFD}" name="Object_Object_E" displayName="Object_Object_E" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{A7F4BC04-EF6D-44C8-A8A4-333217A27DFD}" name="Object_Object_E" displayName="Object_Object_E" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:E1048576" xr:uid="{F8D7437F-C143-4316-8751-B528BBED99CD}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{14262737-8422-4511-9E26-795E5216F0A5}" name="entity"/>
@@ -6194,7 +6200,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{F0EA5F7B-4021-449A-84EF-1AB4B282A111}" name="Object_Nature_E" displayName="Object_Nature_E" ref="F1:J1048576" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{F0EA5F7B-4021-449A-84EF-1AB4B282A111}" name="Object_Nature_E" displayName="Object_Nature_E" ref="F1:J1048576" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="F1:J1048576" xr:uid="{796A97D8-A7F1-474E-AB35-17963B61B174}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{C392C705-6121-452F-B8B1-F3C64BFF1809}" name="entity"/>
@@ -21967,8 +21973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E3B16A-04FC-430B-A1B4-421160639A9B}">
   <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23763,12 +23769,24 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="6"/>
+      <c r="A106" s="5" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>944</v>
+      </c>
+      <c r="D106" t="s">
+        <v>944</v>
+      </c>
+      <c r="E106" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations xWindow="453" yWindow="668" count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="NEW Entity tag FALSE" sqref="E1" xr:uid="{18AB3595-FFB4-44DC-867E-77E97ED3F63A}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="NEW Entity tag FALSE" prompt="NEW Entity tag FALSE" sqref="E2:E1048576" xr:uid="{57D88306-09B3-4060-A24D-15BF00E31186}">
       <formula1>"TRUE,FALSE"</formula1>
@@ -24493,7 +24511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8A311D-E39A-4149-B3C9-A95FB47ACE2F}">
   <dimension ref="A1:D1063"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
